--- a/MybatisGenerator.xlsx
+++ b/MybatisGenerator.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクト作成" sheetId="1" r:id="rId1"/>
     <sheet name="カスタマイズ" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Mybatis_OGNL" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="147">
   <si>
     <t>Mavenプロジェクト作成</t>
     <rPh sb="11" eb="13">
@@ -785,12 +785,231 @@
   <si>
     <t>2）plugin里头的方法挺多的，大多数用反射和动态代理实现的，需要好好看一下，以后用得到的时候再来。</t>
   </si>
+  <si>
+    <t>1.$ と＃の使い分け</t>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●＄</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●＃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（パラメータ　→　対応のSQL）</t>
+    <rPh sb="9" eb="11">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>预编译</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的PrepareStatement</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Statement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスク：なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスク：脆弱性SQL注入</t>
+    <rPh sb="4" eb="7">
+      <t>ゼイジャクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チュウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WHEREの条件とする</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ORDER BYのファイルとする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;select id="fetchStudentByName" parameterType="String" resultType="entity.StudentEntity"&gt; </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;/select&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分析：画面で「anything’ OR ‘x’='x」入力し、検索ボタンをクリックすると</t>
+    <rPh sb="0" eb="2">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てのユーザ情報を取得される</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：×</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：○</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT id,name,age FROM student WHERE name = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">#{name} </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>SELECT id,name,age FROM student WHERE name =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> '${name}' </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ORDER BY </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${id}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ORDER BY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ${id}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発行されたSQL：</t>
+    <rPh sb="0" eb="2">
+      <t>ハッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT id,name,age FROM student WHERE name = 'anything' OR 'x'='x'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT id,name,age FROM student WHERE name = 'anything\' OR \'x\'=\'x'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（文字列代入：パラメータをSQLとして使う）</t>
+    <rPh sb="19" eb="20">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考サイト：http://www.mybatis.org/mybatis-3/ja/sqlmap-xml.html</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -867,6 +1086,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -896,7 +1123,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -919,6 +1146,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1377,7 +1607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0"/>
+    <sheetView topLeftCell="A103" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1701,7 +1931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
@@ -2091,12 +2321,145 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1">
+      <c r="A13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1">
+      <c r="A14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1">
+      <c r="A15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15" customHeight="1">
+      <c r="A22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15" customHeight="1">
+      <c r="A23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/MybatisGenerator.xlsx
+++ b/MybatisGenerator.xlsx
@@ -998,8 +998,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>参考サイト：http://www.mybatis.org/mybatis-3/ja/sqlmap-xml.html</t>
-    <rPh sb="0" eb="2">
+    <t>※参考サイト：http://www.mybatis.org/mybatis-3/ja/sqlmap-xml.html</t>
+    <rPh sb="1" eb="3">
       <t>サンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>

--- a/MybatisGenerator.xlsx
+++ b/MybatisGenerator.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="195">
   <si>
     <t>Mavenプロジェクト作成</t>
     <rPh sb="11" eb="13">
@@ -1004,12 +1004,171 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>２.OGNL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動的SQL作成</t>
+    <rPh sb="0" eb="2">
+      <t>ドウテキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;where&gt;</t>
+  </si>
+  <si>
+    <t>&lt;bind name="pattern" value="'%' + _parameter.getKeyWord() + '%'" /&gt;</t>
+  </si>
+  <si>
+    <t>(CLOTHNO like #{pattern} or CLOTHCODE like #{pattern}</t>
+  </si>
+  <si>
+    <t>or CLOTHFILECODE like #{pattern} or CLOTHFILENAME like #{pattern}</t>
+  </si>
+  <si>
+    <t>or CENTURYCODE like #{pattern} or CENTURYNAME like #{pattern}</t>
+  </si>
+  <si>
+    <t>or REGIONCODE like #{pattern} or REGIONNAME like #{pattern}</t>
+  </si>
+  <si>
+    <t>or PLANTCODE like #{pattern} or PLANTNAME like #{pattern}</t>
+  </si>
+  <si>
+    <t>or ABSTRACTCODE  like #{pattern} or ABSTRACTNAME like #{pattern}</t>
+  </si>
+  <si>
+    <t>or ETHNICCODE like #{pattern} or ETHNICNAME like #{pattern}</t>
+  </si>
+  <si>
+    <t>or MOTIFCODE like #{pattern} or MOTIFNAME like #{pattern})</t>
+  </si>
+  <si>
+    <t>&lt;/if&gt;</t>
+  </si>
+  <si>
+    <t>&lt;trim prefix=" AND (" suffix=" )" prefixOverrides="AND |OR "&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${andOr} CLOTHFILECODE IN</t>
+  </si>
+  <si>
+    <t>&lt;foreach collection="lstClothfilecode" item="item" open="(" close=")" separator=","&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             </t>
+  </si>
+  <si>
+    <t>#{item}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>&lt;/foreach&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${andOr} CENTURYCODE IN</t>
+  </si>
+  <si>
+    <t>&lt;foreach collection="lstCenturycode" item="item" open="(" close=")" separator=","&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${andOr} REGIONCODE IN</t>
+  </si>
+  <si>
+    <t>&lt;foreach collection="lstRegioncode" item="item" open="(" close=")" separator=","&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${andOr} PLANTCODE IN</t>
+  </si>
+  <si>
+    <t>&lt;foreach collection="lstPlantcode" item="item" open="(" close=")" separator=","&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${andOr} ABSTRACTCODE IN</t>
+  </si>
+  <si>
+    <t>&lt;foreach collection="lstAbstractcode" item="item" open="(" close=")" separator=","&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${andOr} ETHNICCODE IN</t>
+  </si>
+  <si>
+    <t>&lt;foreach collection="lstEthniccode" item="item" open="(" close=")" separator=","&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${andOr} MOTIFCODE IN</t>
+  </si>
+  <si>
+    <t>&lt;foreach collection="lstMotifcode" item="item" open="(" close=")" separator=","&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/trim&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/where&gt;</t>
+  </si>
+  <si>
+    <t>order by CLOTHNO ${orderBy}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;/select&gt;</t>
+  </si>
+  <si>
+    <t>//＠class＠静的メソッド</t>
+    <rPh sb="9" eb="11">
+      <t>セイテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;select id="getDatas" parameterType="jp.co.Criteria" resultMap="DataResultMap"&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>select * from one_view v</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;if test="@jp.co.dao.Ognl@isNotEmpty(keyWord)"&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;if test="@jp.co..dao.Ognl@isNotEmpty(lstClothfilecode)"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;if test="@jp.co..dao.Ognl@isNotEmpty(lstCenturycode)"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;if test="@jp.co..dao.Ognl@isNotEmpty(lstRegioncode)"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;if test="@jp.co..dao.Ognl@isNotEmpty(lstPlantcode)"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;if test="@jp.co..dao.Ognl@isNotEmpty(lstAbstractcode)"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;if test="@jp.co..dao.Ognl@isNotEmpty(lstEthniccode)"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;if test="@jp.co..dao.Ognl@isNotEmpty(lstMotifcode)"&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1094,6 +1253,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1123,7 +1290,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1149,6 +1316,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2321,10 +2491,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2419,44 +2589,407 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15" customHeight="1">
+    <row r="22" spans="1:11" ht="15" customHeight="1">
       <c r="A22" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15" customHeight="1">
+    <row r="23" spans="1:11" ht="15" customHeight="1">
       <c r="A23" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="B30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="B31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="C32" t="s">
+        <v>187</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="D33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="D34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="D35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="D36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="D37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="D38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="D39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="D40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="D41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="C42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="C43" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="C44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="C45" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="D46" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="C49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="C50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="D51" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="D52" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>166</v>
+      </c>
+      <c r="B54" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="C55" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="C56" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="D57" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="D58" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>166</v>
+      </c>
+      <c r="B60" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="C61" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="C62" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="D63" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="D64" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>164</v>
+      </c>
+      <c r="B65" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>166</v>
+      </c>
+      <c r="B66" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="C67" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="C68" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="D69" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="D70" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B71" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>166</v>
+      </c>
+      <c r="B72" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="C73" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="C74" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="D75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="D76" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>166</v>
+      </c>
+      <c r="B78" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="C79" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="C80" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="D81" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="D82" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="C85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="C86" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="B87" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="B88" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
